--- a/Exercício 3/Resultados/RNA FatigueLevel.xlsx
+++ b/Exercício 3/Resultados/RNA FatigueLevel.xlsx
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -466,22 +466,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,35 +484,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,6 +515,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AS75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -906,367 +897,367 @@
       <c r="C2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:45" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="5" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="G5" s="42" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="L5" s="42" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="Q5" s="42" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="Q5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="V5" s="42" t="s">
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="V5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="AA5" s="42" t="s">
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="AA5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AF5" s="42" t="s">
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AF5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AK5" s="42" t="s">
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AK5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AP5" s="42" t="s">
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
+      <c r="AP5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="51"/>
     </row>
     <row r="6" spans="2:45" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="43"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="17" t="s">
+      <c r="N6" s="46"/>
+      <c r="O6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="43" t="s">
+      <c r="R6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="43"/>
-      <c r="T6" s="17" t="s">
+      <c r="S6" s="46"/>
+      <c r="T6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="43" t="s">
+      <c r="W6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="17" t="s">
+      <c r="X6" s="46"/>
+      <c r="Y6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="43" t="s">
+      <c r="AB6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="17" t="s">
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" s="17" t="s">
+      <c r="AF6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="43" t="s">
+      <c r="AG6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="17" t="s">
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AK6" s="17" t="s">
+      <c r="AK6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AL6" s="43" t="s">
+      <c r="AL6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="17" t="s">
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AP6" s="17" t="s">
+      <c r="AP6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AQ6" s="43" t="s">
+      <c r="AQ6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="17" t="s">
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:45" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="e">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="B7" s="18" t="str">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),1)</f>
+        <v>5,4,3</v>
+      </c>
+      <c r="C7" s="42">
         <f>MIN(C10:C74)</f>
         <v>1.1121296380000001</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="18" t="e">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="18">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),1)</f>
+      <c r="D7" s="42"/>
+      <c r="E7" s="18">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),4)</f>
+        <v>313.50240000000002</v>
+      </c>
+      <c r="G7" s="40">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),1)</f>
         <v>2.1</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="42">
         <f>MIN(H10:H74)</f>
         <v>1.1003266650000001</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="18">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),4)</f>
+      <c r="I7" s="42"/>
+      <c r="J7" s="40">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),4)</f>
         <v>292.53267</v>
       </c>
-      <c r="L7" s="18" t="e">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="44">
+      <c r="L7" s="40" t="str">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),1)</f>
+        <v>5,4,2</v>
+      </c>
+      <c r="M7" s="42">
         <f>MIN(M10:M74)</f>
         <v>1.1274823730000001</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="18" t="e">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="18" t="str">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),1)</f>
+      <c r="N7" s="42"/>
+      <c r="O7" s="40">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),4)</f>
+        <v>248.15683000000001</v>
+      </c>
+      <c r="Q7" s="40" t="str">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),1)</f>
         <v>5,3,2</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="42">
         <f>MIN(R10:R74)</f>
         <v>1.1173482779999999</v>
       </c>
-      <c r="S7" s="45"/>
-      <c r="T7" s="18">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),4)</f>
+      <c r="S7" s="42"/>
+      <c r="T7" s="40">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),4)</f>
         <v>245.24816000000001</v>
       </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="18">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),1)</f>
+      <c r="V7" s="40">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),1)</f>
         <v>4.3</v>
       </c>
-      <c r="W7" s="45">
+      <c r="W7" s="42">
         <f>MIN(W10:W74)</f>
         <v>1.1239005070000001</v>
       </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="18">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),4)</f>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),4)</f>
         <v>221.04112000000001</v>
       </c>
-      <c r="AA7" s="18">
-        <f>INDEX(AA10:AD10,MATCH(AB7,AB10:AB74,0),1)</f>
+      <c r="AA7" s="40">
+        <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),1)</f>
         <v>4.3</v>
       </c>
-      <c r="AB7" s="45">
+      <c r="AB7" s="42">
         <f>MIN(AB10:AB74)</f>
         <v>1.1232752180000001</v>
       </c>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="18">
-        <f>INDEX(AA10:AD10,MATCH(AB7,AB10:AB74,0),4)</f>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="40">
+        <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),4)</f>
         <v>220.48066</v>
       </c>
-      <c r="AF7" s="18">
-        <f>INDEX(AF10:AI10,MATCH(AG7,AG10:AG74,0),1)</f>
+      <c r="AF7" s="40">
+        <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),1)</f>
         <v>6.6</v>
       </c>
-      <c r="AG7" s="44">
+      <c r="AG7" s="42">
         <f>MIN(AG10:AG74)</f>
         <v>1.299102499</v>
       </c>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="10">
-        <f>INDEX(AF10:AI10,MATCH(AG7,AG10:AG74,0),4)</f>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="40">
+        <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),4)</f>
         <v>150.76866000000001</v>
       </c>
-      <c r="AK7" s="18" t="e">
-        <f>INDEX(AK10:AN10,MATCH(AL7,AL10:AL74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL7" s="44">
+      <c r="AK7" s="40">
+        <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),1)</f>
+        <v>3.2</v>
+      </c>
+      <c r="AL7" s="42">
         <f>MIN(AL10:AL74)</f>
         <v>1.182429204</v>
       </c>
-      <c r="AM7" s="44"/>
-      <c r="AN7" s="10" t="e">
-        <f>INDEX(AK10:AN10,MATCH(AL7,AL10:AL74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AP7" s="18" t="e">
-        <f>INDEX(AP10:AS10,MATCH(AQ7,AQ10:AQ74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AQ7" s="44">
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="40">
+        <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),4)</f>
+        <v>251.44973999999999</v>
+      </c>
+      <c r="AP7" s="40" t="str">
+        <f>INDEX(AP10:AS74,MATCH(AQ7,AQ10:AQ74,0),1)</f>
+        <v>3,2,1</v>
+      </c>
+      <c r="AQ7" s="42">
         <f>MIN(AQ10:AQ74)</f>
         <v>1.1223383870000001</v>
       </c>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="10" t="e">
-        <f>INDEX(AP10:AS10,MATCH(AQ7,AQ10:AQ74,0),4)</f>
-        <v>#REF!</v>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="40">
+        <f>INDEX(AP10:AS74,MATCH(AQ7,AQ10:AQ74,0),4)</f>
+        <v>240.91255000000001</v>
       </c>
     </row>
     <row r="8" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="24"/>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="V8" s="46" t="s">
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
+      <c r="V8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="48"/>
-      <c r="AA8" s="46" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="45"/>
+      <c r="AA8" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="48"/>
-      <c r="AF8" s="49" t="s">
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="45"/>
+      <c r="AF8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="51"/>
-      <c r="AK8" s="49" t="s">
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="50"/>
+      <c r="AK8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="51"/>
-      <c r="AP8" s="49" t="s">
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="50"/>
+      <c r="AP8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="51"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="50"/>
     </row>
     <row r="9" spans="2:45" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
@@ -4052,44 +4043,44 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="AP5:AS5"/>
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AP5:AS5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="W7:X7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4099,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" topLeftCell="U1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4157,332 +4148,332 @@
       <c r="C2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="2:40" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="33"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="5" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="G5" s="55" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="G5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="L5" s="55" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="L5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="Q5" s="55" t="s">
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="Q5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="V5" s="55" t="s">
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="V5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="AA5" s="55" t="s">
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="AA5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AF5" s="55" t="s">
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AF5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AK5" s="55" t="s">
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AK5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
     </row>
     <row r="6" spans="2:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="33" t="s">
+      <c r="N6" s="46"/>
+      <c r="O6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="56"/>
-      <c r="T6" s="33" t="s">
+      <c r="S6" s="46"/>
+      <c r="T6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="V6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="56" t="s">
+      <c r="W6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="33" t="s">
+      <c r="X6" s="46"/>
+      <c r="Y6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="33" t="s">
+      <c r="AA6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="56" t="s">
+      <c r="AB6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="33" t="s">
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AF6" s="33" t="s">
+      <c r="AF6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="56" t="s">
+      <c r="AG6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="33" t="s">
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AK6" s="33" t="s">
+      <c r="AK6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AL6" s="56" t="s">
+      <c r="AL6" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="33" t="s">
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),1)</f>
+    <row r="7" spans="2:40" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="40">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),1)</f>
         <v>5.4</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="42">
         <f>MIN(C10:C74)</f>
         <v>0.3889813707</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="29">
-        <f>INDEX(B10:E10,MATCH(C7,C10:C74,0),4)</f>
+      <c r="D7" s="42"/>
+      <c r="E7" s="40">
+        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),4)</f>
         <v>40.097250000000003</v>
       </c>
-      <c r="G7" s="29" t="e">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="57">
+      <c r="G7" s="40" t="str">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),1)</f>
+        <v>4,3,2</v>
+      </c>
+      <c r="H7" s="42">
         <f>MIN(H10:H74)</f>
         <v>0.38959069829999998</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="29" t="e">
-        <f>INDEX(G10:J10,MATCH(H7,H10:H74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="29">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),1)</f>
+      <c r="I7" s="42"/>
+      <c r="J7" s="40">
+        <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),4)</f>
+        <v>39.85239</v>
+      </c>
+      <c r="L7" s="40">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),1)</f>
         <v>4.3</v>
       </c>
-      <c r="M7" s="57">
+      <c r="M7" s="42">
         <f>MIN(M10:M74)</f>
         <v>0.4125550281</v>
       </c>
-      <c r="N7" s="57"/>
-      <c r="O7" s="29">
-        <f>INDEX(L10:O10,MATCH(M7,M10:M74,0),4)</f>
+      <c r="N7" s="42"/>
+      <c r="O7" s="40">
+        <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),4)</f>
         <v>34.371720000000003</v>
       </c>
-      <c r="Q7" s="29">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),1)</f>
+      <c r="Q7" s="40">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),1)</f>
         <v>7.2</v>
       </c>
-      <c r="R7" s="58">
+      <c r="R7" s="42">
         <f>MIN(R10:R74)</f>
         <v>0.41667431100000002</v>
       </c>
-      <c r="S7" s="58"/>
-      <c r="T7" s="29">
-        <f>INDEX(Q10:T10,MATCH(R7,R10:R74,0),4)</f>
+      <c r="S7" s="42"/>
+      <c r="T7" s="40">
+        <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),4)</f>
         <v>31.184380000000001</v>
       </c>
       <c r="U7" s="3"/>
-      <c r="V7" s="29">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),1)</f>
+      <c r="V7" s="40">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),1)</f>
         <v>4.3</v>
       </c>
-      <c r="W7" s="58">
+      <c r="W7" s="42">
         <f>MIN(W10:W74)</f>
         <v>0.4164734424</v>
       </c>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="29">
-        <f>INDEX(V10:Y10,MATCH(W7,W10:W74,0),4)</f>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40">
+        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),4)</f>
         <v>32.281109999999998</v>
       </c>
-      <c r="AA7" s="29" t="e">
-        <f>INDEX(AA10:AD10,MATCH(AB7,AB10:AB74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB7" s="58">
+      <c r="AA7" s="40">
+        <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),1)</f>
+        <v>5.4</v>
+      </c>
+      <c r="AB7" s="42">
         <f>MIN(AB10:AB74)</f>
         <v>0.44420379850000002</v>
       </c>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="29" t="e">
-        <f>INDEX(AA10:AD10,MATCH(AB7,AB10:AB74,0),4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF7" s="29">
-        <f>INDEX(AF10:AI10,MATCH(AG7,AG10:AG74,0),1)</f>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="40">
+        <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),4)</f>
+        <v>27.955480000000001</v>
+      </c>
+      <c r="AF7" s="40">
+        <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),1)</f>
         <v>5.4</v>
       </c>
-      <c r="AG7" s="57">
+      <c r="AG7" s="42">
         <f>MIN(AG10:AG74)</f>
         <v>0.45989743459999999</v>
       </c>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="34">
-        <f>INDEX(AF10:AI10,MATCH(AG7,AG10:AG74,0),4)</f>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="40">
+        <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),4)</f>
         <v>26.50093</v>
       </c>
-      <c r="AK7" s="29" t="e">
-        <f>INDEX(AK10:AN10,MATCH(AL7,AL10:AL74,0),1)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL7" s="57">
+      <c r="AK7" s="40">
+        <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),1)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AL7" s="42">
         <f>MIN(AL10:AL74)</f>
         <v>0.46122735910000001</v>
       </c>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="34" t="e">
-        <f>INDEX(AK10:AN10,MATCH(AL7,AL10:AL74,0),4)</f>
-        <v>#REF!</v>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="40">
+        <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),4)</f>
+        <v>16.671029999999998</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="31"/>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="56"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="61"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="35"/>
-      <c r="Q8" s="59" t="s">
+      <c r="Q8" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="61"/>
-      <c r="V8" s="59" t="s">
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="56"/>
+      <c r="V8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="61"/>
-      <c r="AA8" s="59" t="s">
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="56"/>
+      <c r="AA8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
-      <c r="AF8" s="59" t="s">
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
+      <c r="AF8" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="61"/>
-      <c r="AK8" s="59" t="s">
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="56"/>
+      <c r="AK8" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="61"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="56"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
@@ -7151,6 +7142,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AK8:AN8"/>
     <mergeCell ref="AG7:AH7"/>
@@ -7167,24 +7176,6 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AF5:AI5"/>
-    <mergeCell ref="AK5:AN5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="D2:P2"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exercício 3/Resultados/RNA FatigueLevel.xlsx
+++ b/Exercício 3/Resultados/RNA FatigueLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25580" windowHeight="14260"/>
+    <workbookView xWindow="15580" yWindow="460" windowWidth="10000" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Fatigue Level 7 níveis" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="84">
   <si>
     <t>c</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Nº Iterações</t>
   </si>
   <si>
-    <t>5,4,3</t>
-  </si>
-  <si>
     <t>Erro</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>5,4,2</t>
   </si>
   <si>
-    <t>5,3,2</t>
-  </si>
-  <si>
     <t>3,2,1</t>
   </si>
   <si>
@@ -90,30 +84,6 @@
     <t>FatigueLevel ~ Task</t>
   </si>
   <si>
-    <t>FatigueLevel ~ Task + MAMean</t>
-  </si>
-  <si>
-    <t>FatigueLevel ~ Task + MAMean + MVMean</t>
-  </si>
-  <si>
-    <t>FatigueLevel ~ Task + MAMean + MVMean + DDCMean</t>
-  </si>
-  <si>
-    <t>FatigueLevel ~ Task + MAMean + MVMean + DDCMean + DMSMean</t>
-  </si>
-  <si>
-    <t>FatigueLevel ~ Task + MAMean + MVMean + DDCMean + DMSMean + ADMSLMean</t>
-  </si>
-  <si>
-    <t>FatigueLevel ~ Task + MAMean + MVMean + DDCMean + DMSMean + ADMSLMean  + KDT</t>
-  </si>
-  <si>
-    <t>FatigueLevel ~ Task + MAMean + MVMean + DDCMean + DMSMean + ADMSLMean  + KDT + TBC</t>
-  </si>
-  <si>
-    <t>FatigueLevel ~ Task + MAMean + MVMean + DDCMean + DMSMean + ADMSLMean  + KDT + TBC + AEDMean</t>
-  </si>
-  <si>
     <t>FatigueLevel ~ Task + KDTMean</t>
   </si>
   <si>
@@ -136,13 +106,193 @@
   </si>
   <si>
     <t>Teste a FatigueLevel com 2 níveis</t>
+  </si>
+  <si>
+    <t>1.126026511</t>
+  </si>
+  <si>
+    <t>319.67226</t>
+  </si>
+  <si>
+    <t>1.129408777</t>
+  </si>
+  <si>
+    <t>316.8386</t>
+  </si>
+  <si>
+    <t>1.126298389</t>
+  </si>
+  <si>
+    <t>317.40709</t>
+  </si>
+  <si>
+    <t>1.084616703</t>
+  </si>
+  <si>
+    <t>310.42102</t>
+  </si>
+  <si>
+    <t>1.09882162</t>
+  </si>
+  <si>
+    <t>315.19984</t>
+  </si>
+  <si>
+    <t>1.13400327</t>
+  </si>
+  <si>
+    <t>303.63827</t>
+  </si>
+  <si>
+    <t>1.10260521</t>
+  </si>
+  <si>
+    <t>288.33486</t>
+  </si>
+  <si>
+    <t>1.104381737</t>
+  </si>
+  <si>
+    <t>300.3818</t>
+  </si>
+  <si>
+    <t>1.125915046</t>
+  </si>
+  <si>
+    <t>272.74873</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA + MV+ DDC + DMS</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA + MV</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA + MV + DDC</t>
+  </si>
+  <si>
+    <t>1.121889459</t>
+  </si>
+  <si>
+    <t>264.52399</t>
+  </si>
+  <si>
+    <t>1.120295517</t>
+  </si>
+  <si>
+    <t>298.73272</t>
+  </si>
+  <si>
+    <t>1.132050771</t>
+  </si>
+  <si>
+    <t>271.03376</t>
+  </si>
+  <si>
+    <t>1.201082442</t>
+  </si>
+  <si>
+    <t>229.36587</t>
+  </si>
+  <si>
+    <t>4,3,1</t>
+  </si>
+  <si>
+    <t>1.123681216</t>
+  </si>
+  <si>
+    <t>294.66088</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA + MV + DDC + DMS + ADMSL</t>
+  </si>
+  <si>
+    <t>1.146384461</t>
+  </si>
+  <si>
+    <t>260.19666</t>
+  </si>
+  <si>
+    <t>1.113958161</t>
+  </si>
+  <si>
+    <t>264.32265</t>
+  </si>
+  <si>
+    <t>0.4125587353</t>
+  </si>
+  <si>
+    <t>33.67531</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA + MV + DDC + DMS + ADMSL  + KDT</t>
+  </si>
+  <si>
+    <t>0.4297212995</t>
+  </si>
+  <si>
+    <t>34.32585</t>
+  </si>
+  <si>
+    <t>0.4949946479</t>
+  </si>
+  <si>
+    <t>21.14641</t>
+  </si>
+  <si>
+    <t>1.195227167</t>
+  </si>
+  <si>
+    <t>238.74314</t>
+  </si>
+  <si>
+    <t>1.191300753</t>
+  </si>
+  <si>
+    <t>237.61568</t>
+  </si>
+  <si>
+    <t>0.473448742</t>
+  </si>
+  <si>
+    <t>29.81675</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA + MV + DDC + DMS + ADMSL  + KDT + TBC</t>
+  </si>
+  <si>
+    <t>0.4655209353</t>
+  </si>
+  <si>
+    <t>31.27898</t>
+  </si>
+  <si>
+    <t>0.6543014301</t>
+  </si>
+  <si>
+    <t>28.84016</t>
+  </si>
+  <si>
+    <t>1.177810055</t>
+  </si>
+  <si>
+    <t>200.728</t>
+  </si>
+  <si>
+    <t>FatigueLevel ~ MA + MV + DDC + DMS + ADMSL  + KDT + TBC + AED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +337,22 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -346,10 +512,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,6 +640,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,8 +706,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -837,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AS75"/>
+  <dimension ref="B2:AS76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -895,383 +1081,356 @@
   <sheetData>
     <row r="2" spans="2:45" ht="20" x14ac:dyDescent="0.2">
       <c r="C2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+        <v>14</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
       <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="2:45" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="5" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="G5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="L5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="Q5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="V5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="AA5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AF5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AK5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
-      <c r="AP5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="G5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="L5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="Q5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="V5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="AA5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AF5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AK5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AP5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
     </row>
     <row r="6" spans="2:45" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
       <c r="G6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="46"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="46" t="s">
+      <c r="W6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="46"/>
+      <c r="X6" s="51"/>
       <c r="Y6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="46"/>
+      <c r="AC6" s="51"/>
       <c r="AD6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="46" t="s">
+      <c r="AG6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AH6" s="46"/>
+      <c r="AH6" s="51"/>
       <c r="AI6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AL6" s="46" t="s">
+      <c r="AL6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AM6" s="46"/>
+      <c r="AM6" s="51"/>
       <c r="AN6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AQ6" s="46" t="s">
+      <c r="AQ6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AR6" s="46"/>
+      <c r="AR6" s="51"/>
       <c r="AS6" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:45" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="str">
-        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),1)</f>
-        <v>5,4,3</v>
-      </c>
-      <c r="C7" s="42">
-        <f>MIN(C10:C74)</f>
-        <v>1.1121296380000001</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="18">
-        <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),4)</f>
-        <v>313.50240000000002</v>
-      </c>
-      <c r="G7" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:45" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="G7" s="40" t="e">
         <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),1)</f>
-        <v>2.1</v>
-      </c>
-      <c r="H7" s="42">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="47">
         <f>MIN(H10:H74)</f>
-        <v>1.1003266650000001</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="47"/>
+      <c r="J7" s="40" t="e">
         <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),4)</f>
-        <v>292.53267</v>
-      </c>
-      <c r="L7" s="40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="40" t="e">
         <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),1)</f>
-        <v>5,4,2</v>
-      </c>
-      <c r="M7" s="42">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" s="47">
         <f>MIN(M10:M74)</f>
-        <v>1.1274823730000001</v>
-      </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40">
+        <v>0</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="40" t="e">
         <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),4)</f>
-        <v>248.15683000000001</v>
-      </c>
-      <c r="Q7" s="40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" s="40" t="e">
         <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),1)</f>
-        <v>5,3,2</v>
-      </c>
-      <c r="R7" s="42">
+        <v>#N/A</v>
+      </c>
+      <c r="R7" s="47">
         <f>MIN(R10:R74)</f>
-        <v>1.1173482779999999</v>
-      </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="40">
+        <v>0</v>
+      </c>
+      <c r="S7" s="47"/>
+      <c r="T7" s="40" t="e">
         <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),4)</f>
-        <v>245.24816000000001</v>
+        <v>#N/A</v>
       </c>
       <c r="U7" s="5"/>
-      <c r="V7" s="40">
-        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),1)</f>
-        <v>4.3</v>
-      </c>
-      <c r="W7" s="42">
-        <f>MIN(W10:W74)</f>
-        <v>1.1239005070000001</v>
-      </c>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="40">
-        <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),4)</f>
-        <v>221.04112000000001</v>
-      </c>
-      <c r="AA7" s="40">
+      <c r="V7" s="40" t="e">
+        <f>INDEX(V10:Y74,MATCH(W7,W11:W74,0),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W7" s="47">
+        <f>MIN(W11:W74)</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="40" t="e">
+        <f>INDEX(V10:Y74,MATCH(W7,W11:W74,0),4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA7" s="40" t="e">
         <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),1)</f>
-        <v>4.3</v>
-      </c>
-      <c r="AB7" s="42">
+        <v>#N/A</v>
+      </c>
+      <c r="AB7" s="47">
         <f>MIN(AB10:AB74)</f>
-        <v>1.1232752180000001</v>
-      </c>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="40" t="e">
         <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),4)</f>
-        <v>220.48066</v>
-      </c>
-      <c r="AF7" s="40">
+        <v>#N/A</v>
+      </c>
+      <c r="AF7" s="40" t="e">
         <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),1)</f>
-        <v>6.6</v>
-      </c>
-      <c r="AG7" s="42">
+        <v>#N/A</v>
+      </c>
+      <c r="AG7" s="47">
         <f>MIN(AG10:AG74)</f>
-        <v>1.299102499</v>
-      </c>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="40" t="e">
         <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),4)</f>
-        <v>150.76866000000001</v>
-      </c>
-      <c r="AK7" s="40">
+        <v>#N/A</v>
+      </c>
+      <c r="AK7" s="40" t="e">
         <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),1)</f>
-        <v>3.2</v>
-      </c>
-      <c r="AL7" s="42">
+        <v>#N/A</v>
+      </c>
+      <c r="AL7" s="47">
         <f>MIN(AL10:AL74)</f>
-        <v>1.182429204</v>
-      </c>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="40" t="e">
         <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),4)</f>
-        <v>251.44973999999999</v>
+        <v>#N/A</v>
       </c>
       <c r="AP7" s="40" t="str">
         <f>INDEX(AP10:AS74,MATCH(AQ7,AQ10:AQ74,0),1)</f>
         <v>3,2,1</v>
       </c>
-      <c r="AQ7" s="42">
+      <c r="AQ7" s="47">
         <f>MIN(AQ10:AQ74)</f>
         <v>1.1223383870000001</v>
       </c>
-      <c r="AR7" s="42"/>
+      <c r="AR7" s="47"/>
       <c r="AS7" s="40">
         <f>INDEX(AP10:AS74,MATCH(AQ7,AQ10:AQ74,0),4)</f>
         <v>240.91255000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+    <row r="8" spans="2:45" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="G8" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="L8" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="24"/>
-      <c r="Q8" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="V8" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="45"/>
-      <c r="AA8" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="45"/>
-      <c r="AF8" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="50"/>
-      <c r="AK8" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="50"/>
-      <c r="AP8" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="50"/>
-    </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="Q8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="V8" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="50"/>
+      <c r="AA8" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AF8" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="55"/>
+      <c r="AK8" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="55"/>
+      <c r="AP8" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="55"/>
+    </row>
+    <row r="9" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="G9" s="13" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="25"/>
       <c r="L9" s="13" t="s">
@@ -1295,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>0</v>
@@ -1307,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" s="21" t="s">
         <v>0</v>
@@ -1319,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="21" t="s">
         <v>0</v>
@@ -1331,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="21" t="s">
         <v>0</v>
@@ -1343,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="AI9" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="21" t="s">
         <v>0</v>
@@ -1355,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="AN9" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP9" s="21" t="s">
         <v>0</v>
@@ -1367,281 +1526,323 @@
         <v>2</v>
       </c>
       <c r="AS9" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.1121449729999999</v>
-      </c>
-      <c r="D10" s="5">
-        <v>78</v>
-      </c>
-      <c r="E10" s="6">
-        <v>313.50241</v>
-      </c>
-      <c r="F10" s="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="18">
         <v>2.1</v>
       </c>
-      <c r="H10" s="18">
-        <v>1.1003266650000001</v>
-      </c>
-      <c r="I10" s="18">
-        <v>5499</v>
-      </c>
-      <c r="J10" s="18">
-        <v>292.53267</v>
+      <c r="H10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="42">
+        <v>541</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>26</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="18">
-        <v>4.3</v>
-      </c>
-      <c r="M10" s="18">
-        <v>1.139356912</v>
-      </c>
-      <c r="N10" s="18">
-        <v>404938</v>
-      </c>
-      <c r="O10" s="18">
-        <v>254.93619000000001</v>
+        <v>2.1</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="42">
+        <v>1746</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="P10" s="25"/>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="7">
+        <v>3</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="5">
+        <v>4049</v>
+      </c>
+      <c r="T10" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="7">
+        <v>4</v>
+      </c>
+      <c r="W10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X10" s="5">
+        <v>11564</v>
+      </c>
+      <c r="Y10" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>19369</v>
+      </c>
+      <c r="AD10" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF10" s="7">
         <v>7</v>
       </c>
-      <c r="R10" s="4">
-        <v>1.1173482779999999</v>
-      </c>
-      <c r="S10" s="5">
-        <v>241801</v>
-      </c>
-      <c r="T10" s="6">
-        <v>245.24816000000001</v>
-      </c>
-      <c r="V10" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="W10" s="4">
-        <v>1.1239005070000001</v>
-      </c>
-      <c r="X10" s="5">
-        <v>149164</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>221.04112000000001</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>1.1232752180000001</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>199349</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>220.48066</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>1.299102499</v>
+      <c r="AG10" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="AH10" s="5">
-        <v>453432</v>
-      </c>
-      <c r="AI10" s="6">
-        <v>150.76866000000001</v>
+        <v>30154</v>
+      </c>
+      <c r="AI10" s="46" t="s">
+        <v>71</v>
       </c>
       <c r="AK10" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>1.412883082</v>
+        <v>6</v>
+      </c>
+      <c r="AL10" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="AM10" s="5">
-        <v>136828</v>
-      </c>
-      <c r="AN10" s="6">
-        <v>123.15569000000001</v>
+        <v>12846</v>
+      </c>
+      <c r="AN10" s="46" t="s">
+        <v>78</v>
       </c>
       <c r="AP10" s="7">
         <v>6.4</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="AQ10" s="43">
         <v>1.3040984200000001</v>
       </c>
       <c r="AR10" s="5">
         <v>59346</v>
       </c>
-      <c r="AS10" s="6">
+      <c r="AS10" s="46">
         <v>175.57139000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.1121296380000001</v>
-      </c>
-      <c r="D11" s="5">
-        <v>77</v>
-      </c>
-      <c r="E11" s="6">
-        <v>313.50240000000002</v>
-      </c>
+    <row r="11" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="64"/>
       <c r="G11" s="7">
-        <v>4.3</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1.2118786669999999</v>
+        <v>3.2</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="I11" s="5">
-        <v>214852</v>
-      </c>
-      <c r="J11" s="6">
-        <v>272.12412</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1.1274823730000001</v>
+        <v>8621</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="N11" s="5">
-        <v>57340</v>
-      </c>
-      <c r="O11" s="6">
-        <v>248.15683000000001</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
+        <v>34953</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="5">
+        <v>12902</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="V11" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="W11" s="5">
-        <v>1.2265088230000001</v>
+        <v>2.1</v>
+      </c>
+      <c r="W11" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="X11" s="5">
-        <v>188286</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>194.27001000000001</v>
-      </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
+        <v>1765</v>
+      </c>
+      <c r="Y11" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>10937</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="AF11" s="7">
-        <v>9.6</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>1.475585213</v>
+        <v>7.6</v>
+      </c>
+      <c r="AG11" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="AH11" s="5">
-        <v>930182</v>
-      </c>
-      <c r="AI11" s="6">
-        <v>117.90996</v>
+        <v>59181</v>
+      </c>
+      <c r="AI11" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="AK11" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="AL11" s="5">
-        <v>1.275554394</v>
+        <v>5.3</v>
+      </c>
+      <c r="AL11" s="45" t="s">
+        <v>79</v>
       </c>
       <c r="AM11" s="5">
-        <v>164627</v>
-      </c>
-      <c r="AN11" s="6">
-        <v>194.82552999999999</v>
+        <v>14773</v>
+      </c>
+      <c r="AN11" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="AP11" s="7">
         <v>9.4</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AQ11" s="45">
         <v>1.509591361</v>
       </c>
       <c r="AR11" s="5">
         <v>348190</v>
       </c>
-      <c r="AS11" s="6">
+      <c r="AS11" s="46">
         <v>127.03989</v>
       </c>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="6"/>
+    <row r="12" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="64"/>
+      <c r="G12" s="7">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="5">
+        <v>17118</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="5">
+        <v>20216</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="5">
+        <v>75272</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="V12" s="7">
-        <v>7.5</v>
-      </c>
-      <c r="W12" s="4">
-        <v>1.2460770160000001</v>
-      </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6">
-        <v>184.10979</v>
-      </c>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="6"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="6"/>
+        <v>5.4</v>
+      </c>
+      <c r="W12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" s="5">
+        <v>55650</v>
+      </c>
+      <c r="Y12" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>36120</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>53038</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="AK12" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="AL12" s="4">
-        <v>1.182429204</v>
+        <v>6.4</v>
+      </c>
+      <c r="AL12" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="AM12" s="5">
-        <v>293758</v>
-      </c>
-      <c r="AN12" s="6">
-        <v>251.44973999999999</v>
+        <v>64890</v>
+      </c>
+      <c r="AN12" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="AP12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ12" s="4">
+        <v>6</v>
+      </c>
+      <c r="AQ12" s="43">
         <v>1.1223383870000001</v>
       </c>
       <c r="AR12" s="5">
         <v>221103</v>
       </c>
-      <c r="AS12" s="6">
+      <c r="AS12" s="46">
         <v>240.91255000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B13" s="7"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+    <row r="13" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="64"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
@@ -1654,18 +1855,34 @@
       <c r="R13" s="4"/>
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
+      <c r="V13" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" s="5">
+        <v>263892</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="6"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="6"/>
+      <c r="AF13" s="7">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>15685</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="5"/>
@@ -1675,11 +1892,11 @@
       <c r="AR13" s="5"/>
       <c r="AS13" s="6"/>
     </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+    <row r="14" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="64"/>
       <c r="G14" s="8"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1692,18 +1909,34 @@
       <c r="R14" s="4"/>
       <c r="S14" s="5"/>
       <c r="T14" s="6"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
+      <c r="V14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="5">
+        <v>31852</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="AA14" s="8"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="6"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="6"/>
+      <c r="AF14" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>99698</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="AK14" s="8"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="5"/>
@@ -1713,11 +1946,11 @@
       <c r="AR14" s="5"/>
       <c r="AS14" s="6"/>
     </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+    <row r="15" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="64"/>
       <c r="G15" s="8"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1751,11 +1984,11 @@
       <c r="AR15" s="5"/>
       <c r="AS15" s="6"/>
     </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B16" s="7"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+    <row r="16" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="64"/>
       <c r="G16" s="8"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1789,11 +2022,11 @@
       <c r="AR16" s="5"/>
       <c r="AS16" s="6"/>
     </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
+    <row r="17" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="64"/>
       <c r="G17" s="8"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1827,11 +2060,11 @@
       <c r="AR17" s="5"/>
       <c r="AS17" s="6"/>
     </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B18" s="7"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
+    <row r="18" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="64"/>
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1865,11 +2098,11 @@
       <c r="AR18" s="5"/>
       <c r="AS18" s="6"/>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
+    <row r="19" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="64"/>
       <c r="G19" s="8"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1903,11 +2136,11 @@
       <c r="AR19" s="5"/>
       <c r="AS19" s="6"/>
     </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
+    <row r="20" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="64"/>
       <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1921,7 +2154,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="6"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="5"/>
+      <c r="W20" s="43"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="6"/>
       <c r="AA20" s="8"/>
@@ -1941,11 +2174,11 @@
       <c r="AR20" s="5"/>
       <c r="AS20" s="6"/>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B21" s="7"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+    <row r="21" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="64"/>
       <c r="G21" s="8"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1979,11 +2212,11 @@
       <c r="AR21" s="5"/>
       <c r="AS21" s="6"/>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
+    <row r="22" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="64"/>
       <c r="G22" s="8"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2017,11 +2250,11 @@
       <c r="AR22" s="5"/>
       <c r="AS22" s="6"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
+    <row r="23" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="64"/>
       <c r="G23" s="8"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2055,11 +2288,11 @@
       <c r="AR23" s="5"/>
       <c r="AS23" s="6"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+    <row r="24" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="64"/>
       <c r="G24" s="8"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2094,11 +2327,11 @@
       <c r="AR24" s="5"/>
       <c r="AS24" s="6"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+    <row r="25" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="64"/>
       <c r="G25" s="8"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2133,11 +2366,11 @@
       <c r="AR25" s="5"/>
       <c r="AS25" s="6"/>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+    <row r="26" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="64"/>
       <c r="G26" s="8"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2172,11 +2405,11 @@
       <c r="AR26" s="5"/>
       <c r="AS26" s="6"/>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
+    <row r="27" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="64"/>
       <c r="G27" s="8"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2211,11 +2444,11 @@
       <c r="AR27" s="5"/>
       <c r="AS27" s="6"/>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
+    <row r="28" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="64"/>
       <c r="G28" s="8"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2250,11 +2483,11 @@
       <c r="AR28" s="5"/>
       <c r="AS28" s="6"/>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
+    <row r="29" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="64"/>
       <c r="G29" s="8"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2289,11 +2522,11 @@
       <c r="AR29" s="5"/>
       <c r="AS29" s="6"/>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
+    <row r="30" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="64"/>
       <c r="G30" s="8"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2328,12 +2561,12 @@
       <c r="AR30" s="5"/>
       <c r="AS30" s="6"/>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="25"/>
+    <row r="31" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
@@ -2367,12 +2600,12 @@
       <c r="AR31" s="5"/>
       <c r="AS31" s="6"/>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="25"/>
+    <row r="32" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="8"/>
       <c r="I32" s="5"/>
       <c r="J32" s="6"/>
@@ -2406,11 +2639,11 @@
       <c r="AR32" s="5"/>
       <c r="AS32" s="6"/>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+    <row r="33" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="64"/>
       <c r="G33" s="8"/>
       <c r="I33" s="5"/>
       <c r="J33" s="6"/>
@@ -2444,11 +2677,11 @@
       <c r="AR33" s="5"/>
       <c r="AS33" s="6"/>
     </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+    <row r="34" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="64"/>
       <c r="G34" s="8"/>
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
@@ -2482,11 +2715,11 @@
       <c r="AR34" s="5"/>
       <c r="AS34" s="6"/>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
+    <row r="35" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="64"/>
       <c r="G35" s="8"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2521,11 +2754,11 @@
       <c r="AR35" s="5"/>
       <c r="AS35" s="6"/>
     </row>
-    <row r="36" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
+    <row r="36" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
       <c r="G36" s="8"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2560,11 +2793,11 @@
       <c r="AR36" s="5"/>
       <c r="AS36" s="6"/>
     </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
+    <row r="37" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
       <c r="G37" s="8"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2599,11 +2832,11 @@
       <c r="AR37" s="5"/>
       <c r="AS37" s="6"/>
     </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
+    <row r="38" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
       <c r="G38" s="8"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2638,11 +2871,11 @@
       <c r="AR38" s="5"/>
       <c r="AS38" s="6"/>
     </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
+    <row r="39" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
       <c r="G39" s="8"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2677,11 +2910,11 @@
       <c r="AR39" s="5"/>
       <c r="AS39" s="6"/>
     </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
+    <row r="40" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
       <c r="G40" s="8"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2716,11 +2949,11 @@
       <c r="AR40" s="5"/>
       <c r="AS40" s="6"/>
     </row>
-    <row r="41" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
+    <row r="41" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
       <c r="G41" s="8"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2755,11 +2988,11 @@
       <c r="AR41" s="5"/>
       <c r="AS41" s="6"/>
     </row>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+    <row r="42" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
       <c r="G42" s="8"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -2794,11 +3027,11 @@
       <c r="AR42" s="5"/>
       <c r="AS42" s="6"/>
     </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
+    <row r="43" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
       <c r="G43" s="8"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -2833,11 +3066,11 @@
       <c r="AR43" s="5"/>
       <c r="AS43" s="6"/>
     </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
+    <row r="44" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
       <c r="G44" s="8"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -2872,11 +3105,11 @@
       <c r="AR44" s="5"/>
       <c r="AS44" s="6"/>
     </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
+    <row r="45" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
       <c r="G45" s="8"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2911,11 +3144,11 @@
       <c r="AR45" s="5"/>
       <c r="AS45" s="6"/>
     </row>
-    <row r="46" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
+    <row r="46" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
       <c r="G46" s="8"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2950,11 +3183,11 @@
       <c r="AR46" s="5"/>
       <c r="AS46" s="6"/>
     </row>
-    <row r="47" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
+    <row r="47" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
       <c r="G47" s="8"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2989,11 +3222,11 @@
       <c r="AR47" s="5"/>
       <c r="AS47" s="6"/>
     </row>
-    <row r="48" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
+    <row r="48" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
       <c r="G48" s="8"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3028,11 +3261,11 @@
       <c r="AR48" s="5"/>
       <c r="AS48" s="6"/>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
+    <row r="49" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
       <c r="G49" s="8"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3067,11 +3300,11 @@
       <c r="AR49" s="5"/>
       <c r="AS49" s="6"/>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
+    <row r="50" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="G50" s="8"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -3106,11 +3339,11 @@
       <c r="AR50" s="5"/>
       <c r="AS50" s="6"/>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B51" s="8"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
+    <row r="51" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
       <c r="G51" s="8"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -3145,11 +3378,11 @@
       <c r="AR51" s="5"/>
       <c r="AS51" s="6"/>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B52" s="8"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+    <row r="52" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
       <c r="G52" s="8"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -3184,11 +3417,11 @@
       <c r="AR52" s="5"/>
       <c r="AS52" s="6"/>
     </row>
-    <row r="53" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B53" s="8"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
+    <row r="53" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
       <c r="G53" s="8"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -3223,11 +3456,11 @@
       <c r="AR53" s="5"/>
       <c r="AS53" s="6"/>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B54" s="8"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
+    <row r="54" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
       <c r="G54" s="8"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3262,11 +3495,11 @@
       <c r="AR54" s="5"/>
       <c r="AS54" s="6"/>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B55" s="8"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
+    <row r="55" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
       <c r="G55" s="8"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -3301,11 +3534,11 @@
       <c r="AR55" s="5"/>
       <c r="AS55" s="6"/>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B56" s="8"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
+    <row r="56" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
       <c r="G56" s="8"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -3340,11 +3573,11 @@
       <c r="AR56" s="5"/>
       <c r="AS56" s="6"/>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B57" s="8"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
+    <row r="57" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
       <c r="G57" s="8"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3379,11 +3612,11 @@
       <c r="AR57" s="5"/>
       <c r="AS57" s="6"/>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B58" s="8"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
+    <row r="58" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
       <c r="G58" s="8"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3418,11 +3651,11 @@
       <c r="AR58" s="5"/>
       <c r="AS58" s="6"/>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B59" s="8"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
+    <row r="59" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
       <c r="G59" s="8"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -3457,11 +3690,11 @@
       <c r="AR59" s="5"/>
       <c r="AS59" s="6"/>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B60" s="8"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
+    <row r="60" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
       <c r="G60" s="8"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -3496,11 +3729,11 @@
       <c r="AR60" s="5"/>
       <c r="AS60" s="6"/>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B61" s="8"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6"/>
+    <row r="61" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
       <c r="G61" s="8"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -3535,11 +3768,11 @@
       <c r="AR61" s="5"/>
       <c r="AS61" s="6"/>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B62" s="8"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
+    <row r="62" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
       <c r="G62" s="8"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -3574,10 +3807,11 @@
       <c r="AR62" s="5"/>
       <c r="AS62" s="6"/>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B63" s="8"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6"/>
+    <row r="63" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
       <c r="G63" s="8"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -3612,10 +3846,11 @@
       <c r="AR63" s="5"/>
       <c r="AS63" s="6"/>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B64" s="8"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
+    <row r="64" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
       <c r="G64" s="8"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -3650,10 +3885,11 @@
       <c r="AR64" s="5"/>
       <c r="AS64" s="6"/>
     </row>
-    <row r="65" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B65" s="8"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
+    <row r="65" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
       <c r="G65" s="8"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -3688,10 +3924,11 @@
       <c r="AR65" s="5"/>
       <c r="AS65" s="6"/>
     </row>
-    <row r="66" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B66" s="8"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
+    <row r="66" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
       <c r="G66" s="8"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -3726,10 +3963,11 @@
       <c r="AR66" s="5"/>
       <c r="AS66" s="6"/>
     </row>
-    <row r="67" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B67" s="8"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6"/>
+    <row r="67" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
       <c r="G67" s="8"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -3764,10 +4002,11 @@
       <c r="AR67" s="5"/>
       <c r="AS67" s="6"/>
     </row>
-    <row r="68" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B68" s="8"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
+    <row r="68" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
       <c r="G68" s="8"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -3802,10 +4041,11 @@
       <c r="AR68" s="5"/>
       <c r="AS68" s="6"/>
     </row>
-    <row r="69" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B69" s="8"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6"/>
+    <row r="69" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
       <c r="G69" s="8"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -3840,10 +4080,11 @@
       <c r="AR69" s="5"/>
       <c r="AS69" s="6"/>
     </row>
-    <row r="70" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B70" s="8"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
+    <row r="70" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
       <c r="G70" s="8"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -3878,10 +4119,11 @@
       <c r="AR70" s="5"/>
       <c r="AS70" s="6"/>
     </row>
-    <row r="71" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B71" s="8"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
+    <row r="71" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
       <c r="G71" s="8"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -3916,10 +4158,11 @@
       <c r="AR71" s="5"/>
       <c r="AS71" s="6"/>
     </row>
-    <row r="72" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B72" s="8"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
+    <row r="72" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
       <c r="G72" s="8"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -3954,10 +4197,11 @@
       <c r="AR72" s="5"/>
       <c r="AS72" s="6"/>
     </row>
-    <row r="73" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B73" s="8"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6"/>
+    <row r="73" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
       <c r="F73" s="6"/>
       <c r="G73" s="8"/>
       <c r="H73" s="5"/>
@@ -3994,11 +4238,11 @@
       <c r="AR73" s="5"/>
       <c r="AS73" s="6"/>
     </row>
-    <row r="74" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
+    <row r="74" spans="2:45" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
       <c r="F74" s="6"/>
       <c r="G74" s="9"/>
       <c r="H74" s="10"/>
@@ -4035,17 +4279,26 @@
       <c r="AR74" s="5"/>
       <c r="AS74" s="6"/>
     </row>
-    <row r="75" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:45" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
       <c r="AP75" s="9"/>
       <c r="AQ75" s="10"/>
       <c r="AR75" s="10"/>
       <c r="AS75" s="11"/>
     </row>
+    <row r="76" spans="2:45" ht="15" x14ac:dyDescent="0.2">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="34">
     <mergeCell ref="D2:P2"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="Q5:T5"/>
@@ -4054,7 +4307,6 @@
     <mergeCell ref="AF5:AI5"/>
     <mergeCell ref="AK5:AN5"/>
     <mergeCell ref="AP5:AS5"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="R6:S6"/>
@@ -4071,12 +4323,10 @@
     <mergeCell ref="AQ7:AR7"/>
     <mergeCell ref="AA8:AD8"/>
     <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B8:E8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="Q8:T8"/>
     <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="R7:S7"/>
@@ -4146,173 +4396,173 @@
   <sheetData>
     <row r="2" spans="2:40" ht="20" x14ac:dyDescent="0.2">
       <c r="C2" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+        <v>14</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="2:40" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="33"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="5" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="G5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="L5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="Q5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="V5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="AA5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AF5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AK5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="51"/>
-      <c r="AM5" s="51"/>
-      <c r="AN5" s="51"/>
+      <c r="B5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="G5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="L5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="Q5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="V5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="AA5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AF5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AK5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
     </row>
     <row r="6" spans="2:40" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="46"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="46"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="46"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="W6" s="46" t="s">
+      <c r="W6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="46"/>
+      <c r="X6" s="51"/>
       <c r="Y6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AC6" s="46"/>
+      <c r="AC6" s="51"/>
       <c r="AD6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="46" t="s">
+      <c r="AG6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AH6" s="46"/>
+      <c r="AH6" s="51"/>
       <c r="AI6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK6" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="AL6" s="46" t="s">
+      <c r="AL6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AM6" s="46"/>
+      <c r="AM6" s="51"/>
       <c r="AN6" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4320,11 +4570,11 @@
         <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),1)</f>
         <v>5.4</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="47">
         <f>MIN(C10:C74)</f>
         <v>0.3889813707</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="40">
         <f>INDEX(B10:E74,MATCH(C7,C10:C74,0),4)</f>
         <v>40.097250000000003</v>
@@ -4333,11 +4583,11 @@
         <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),1)</f>
         <v>4,3,2</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="47">
         <f>MIN(H10:H74)</f>
         <v>0.38959069829999998</v>
       </c>
-      <c r="I7" s="42"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="40">
         <f>INDEX(G10:J74,MATCH(H7,H10:H74,0),4)</f>
         <v>39.85239</v>
@@ -4346,11 +4596,11 @@
         <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),1)</f>
         <v>4.3</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="47">
         <f>MIN(M10:M74)</f>
         <v>0.4125550281</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="40">
         <f>INDEX(L10:O74,MATCH(M7,M10:M74,0),4)</f>
         <v>34.371720000000003</v>
@@ -4359,11 +4609,11 @@
         <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),1)</f>
         <v>7.2</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="47">
         <f>MIN(R10:R74)</f>
         <v>0.41667431100000002</v>
       </c>
-      <c r="S7" s="42"/>
+      <c r="S7" s="47"/>
       <c r="T7" s="40">
         <f>INDEX(Q10:T74,MATCH(R7,R10:R74,0),4)</f>
         <v>31.184380000000001</v>
@@ -4373,11 +4623,11 @@
         <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),1)</f>
         <v>4.3</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="47">
         <f>MIN(W10:W74)</f>
         <v>0.4164734424</v>
       </c>
-      <c r="X7" s="42"/>
+      <c r="X7" s="47"/>
       <c r="Y7" s="40">
         <f>INDEX(V10:Y74,MATCH(W7,W10:W74,0),4)</f>
         <v>32.281109999999998</v>
@@ -4386,11 +4636,11 @@
         <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),1)</f>
         <v>5.4</v>
       </c>
-      <c r="AB7" s="42">
+      <c r="AB7" s="47">
         <f>MIN(AB10:AB74)</f>
         <v>0.44420379850000002</v>
       </c>
-      <c r="AC7" s="42"/>
+      <c r="AC7" s="47"/>
       <c r="AD7" s="40">
         <f>INDEX(AA10:AD74,MATCH(AB7,AB10:AB74,0),4)</f>
         <v>27.955480000000001</v>
@@ -4399,11 +4649,11 @@
         <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),1)</f>
         <v>5.4</v>
       </c>
-      <c r="AG7" s="42">
+      <c r="AG7" s="47">
         <f>MIN(AG10:AG74)</f>
         <v>0.45989743459999999</v>
       </c>
-      <c r="AH7" s="42"/>
+      <c r="AH7" s="47"/>
       <c r="AI7" s="40">
         <f>INDEX(AF10:AI74,MATCH(AG7,AG10:AG74,0),4)</f>
         <v>26.50093</v>
@@ -4412,68 +4662,68 @@
         <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),1)</f>
         <v>7.5</v>
       </c>
-      <c r="AL7" s="42">
+      <c r="AL7" s="47">
         <f>MIN(AL10:AL74)</f>
         <v>0.46122735910000001</v>
       </c>
-      <c r="AM7" s="42"/>
+      <c r="AM7" s="47"/>
       <c r="AN7" s="40">
         <f>INDEX(AK10:AN74,MATCH(AL7,AL10:AL74,0),4)</f>
         <v>16.671029999999998</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
       <c r="P8" s="35"/>
-      <c r="Q8" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="56"/>
-      <c r="V8" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="56"/>
-      <c r="AA8" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="56"/>
-      <c r="AF8" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="56"/>
-      <c r="AK8" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="56"/>
+      <c r="Q8" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="61"/>
+      <c r="V8" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="61"/>
+      <c r="AA8" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+      <c r="AF8" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="61"/>
+      <c r="AK8" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="61"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
@@ -4486,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>0</v>
@@ -4498,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="28"/>
       <c r="L9" s="13" t="s">
@@ -4511,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>0</v>
@@ -4523,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="T9" s="37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" s="21" t="s">
         <v>0</v>
@@ -4535,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="Y9" s="37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="21" t="s">
         <v>0</v>
@@ -4547,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="21" t="s">
         <v>0</v>
@@ -4559,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="AI9" s="37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="21" t="s">
         <v>0</v>
@@ -4571,7 +4821,7 @@
         <v>2</v>
       </c>
       <c r="AN9" s="37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:40" s="29" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4638,7 +4888,7 @@
         <v>32.281109999999998</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB10" s="1">
         <v>0.45345879500000003</v>
@@ -4778,7 +5028,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="27"/>
       <c r="G12" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1">
         <v>0.38959069829999998</v>
@@ -4802,7 +5052,7 @@
         <v>32.699199999999998</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R12" s="1">
         <v>0.47972877470000003</v>
@@ -4892,7 +5142,7 @@
         <v>34.907420000000002</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R13" s="1">
         <v>0.43363394360000002</v>
@@ -4970,7 +5220,7 @@
         <v>37.53098</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0.45378375500000001</v>
@@ -4986,7 +5236,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="27"/>
       <c r="V14" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W14" s="1">
         <v>0.49968363059999998</v>
@@ -5010,7 +5260,7 @@
         <v>21.198699999999999</v>
       </c>
       <c r="AF14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG14" s="1">
         <v>0.45993590449999999</v>
@@ -5102,7 +5352,7 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="27"/>
       <c r="AF16" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG16" s="3">
         <v>0.51272157559999998</v>
@@ -5144,7 +5394,7 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="27"/>
       <c r="AF17" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG17" s="3">
         <v>0.47927094590000002</v>
